--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_Loc.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_Loc.xlsx
@@ -75,7 +75,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="6b858c1a-532e-4df0-9f80-db1654e5960b" xfId="1"/>
+    <cellStyle name="d91b738f-14fc-4e70-abd4-f7c4e0f7118a" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_Loc.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_Loc.xlsx
@@ -75,7 +75,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="d91b738f-14fc-4e70-abd4-f7c4e0f7118a" xfId="1"/>
+    <cellStyle name="22598428-d892-4b99-b02b-334e0e8b4a4e" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
